--- a/biology/Botanique/Sartidia/Sartidia.xlsx
+++ b/biology/Botanique/Sartidia/Sartidia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sartidia est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Poaceae, originaire d'Afrique, qui comprend six espèces, dont une, Sartidia perrieri, est considérée comme éteinte.
-Ce genre a été créé en 1963 par le botaniste sud-africain, Bernard de Winter, qui l'a détaché du genre voisin, Aristida[1].
-Le nom générique, Sartidia, est une anagramme d'Aristida[2].
+Ce genre a été créé en 1963 par le botaniste sud-africain, Bernard de Winter, qui l'a détaché du genre voisin, Aristida.
+Le nom générique, Sartidia, est une anagramme d'Aristida.
 </t>
         </is>
       </c>
@@ -513,14 +525,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (3 janvier 2017)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (3 janvier 2017) :
 Sartidia angolensis (C.E.Hubb.) De Winter (1963)
 Sartidia dewinteri Munday &amp; Fish (2011)
 Sartidia isaloensis Voronts., Razanats. &amp; Besnard (2015)
 Sartidia jucunda (Schweick.) De Winter (1963)
-Sartidia perrieri (A.Camus) Bourreil, (1967) (éteinte)[4]
+Sartidia perrieri (A.Camus) Bourreil, (1967) (éteinte)
 Sartidia vanderystii (De Wild.) De Winter (1963)</t>
         </is>
       </c>
